--- a/py_excel03.xlsx
+++ b/py_excel03.xlsx
@@ -421,7 +421,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="32" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
